--- a/va_facility_data_2025-02-20/Burlington Lakeside VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Burlington%20Lakeside%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Burlington Lakeside VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Burlington%20Lakeside%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9aeb386fe40e4be099ec068ed1a29441"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbd05cfb9164b44eba516078078772fe8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2a97a6fbd54848ef952bf4cba8676a1e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5ee02c6c9f0a445c9148290f1819b114"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R17c9bed6ea404eb8a741f03e144e9b85"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcaf263a2d9ce49a887e5c91c13bf3335"/>
   </x:sheets>
 </x:workbook>
 </file>
